--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H2">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.99204278133065</v>
+        <v>6.408252</v>
       </c>
       <c r="N2">
-        <v>5.99204278133065</v>
+        <v>19.224756</v>
       </c>
       <c r="O2">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="P2">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="Q2">
-        <v>5.0220272720287</v>
+        <v>6.44185260132</v>
       </c>
       <c r="R2">
-        <v>5.0220272720287</v>
+        <v>57.97667341187999</v>
       </c>
       <c r="S2">
-        <v>0.0554899589008415</v>
+        <v>0.06201426826456375</v>
       </c>
       <c r="T2">
-        <v>0.0554899589008415</v>
+        <v>0.06201426826456374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H3">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.593847247754663</v>
+        <v>0.6824433333333334</v>
       </c>
       <c r="N3">
-        <v>0.593847247754663</v>
+        <v>2.04733</v>
       </c>
       <c r="O3">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="P3">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="Q3">
-        <v>0.497712914022423</v>
+        <v>0.6860216112111112</v>
       </c>
       <c r="R3">
-        <v>0.497712914022423</v>
+        <v>6.1741945009</v>
       </c>
       <c r="S3">
-        <v>0.005499386532077852</v>
+        <v>0.006604175982576284</v>
       </c>
       <c r="T3">
-        <v>0.005499386532077852</v>
+        <v>0.006604175982576282</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H4">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.371040701877471</v>
+        <v>0.3751373333333333</v>
       </c>
       <c r="N4">
-        <v>0.371040701877471</v>
+        <v>1.125412</v>
       </c>
       <c r="O4">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782962</v>
       </c>
       <c r="P4">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782963</v>
       </c>
       <c r="Q4">
-        <v>0.3109751702152452</v>
+        <v>0.3771043034177777</v>
       </c>
       <c r="R4">
-        <v>0.3109751702152452</v>
+        <v>3.393938730759999</v>
       </c>
       <c r="S4">
-        <v>0.00343606246635443</v>
+        <v>0.003630298437918234</v>
       </c>
       <c r="T4">
-        <v>0.00343606246635443</v>
+        <v>0.003630298437918234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H5">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I5">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J5">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.99204278133065</v>
+        <v>6.408252</v>
       </c>
       <c r="N5">
-        <v>5.99204278133065</v>
+        <v>19.224756</v>
       </c>
       <c r="O5">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="P5">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="Q5">
-        <v>60.6159248614557</v>
+        <v>65.74763592751201</v>
       </c>
       <c r="R5">
-        <v>60.6159248614557</v>
+        <v>591.728723347608</v>
       </c>
       <c r="S5">
-        <v>0.66976441924815</v>
+        <v>0.6329377252956893</v>
       </c>
       <c r="T5">
-        <v>0.66976441924815</v>
+        <v>0.6329377252956891</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H6">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J6">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.593847247754663</v>
+        <v>0.6824433333333334</v>
       </c>
       <c r="N6">
-        <v>0.593847247754663</v>
+        <v>2.04733</v>
       </c>
       <c r="O6">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="P6">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="Q6">
-        <v>6.007400391271101</v>
+        <v>7.001758954104446</v>
       </c>
       <c r="R6">
-        <v>6.007400391271101</v>
+        <v>63.01583058694001</v>
       </c>
       <c r="S6">
-        <v>0.06637765642357259</v>
+        <v>0.06740436097756577</v>
       </c>
       <c r="T6">
-        <v>0.06637765642357259</v>
+        <v>0.06740436097756576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H7">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J7">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.371040701877471</v>
+        <v>0.3751373333333333</v>
       </c>
       <c r="N7">
-        <v>0.371040701877471</v>
+        <v>1.125412</v>
       </c>
       <c r="O7">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782962</v>
       </c>
       <c r="P7">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782963</v>
       </c>
       <c r="Q7">
-        <v>3.753473752827915</v>
+        <v>3.84884876793511</v>
       </c>
       <c r="R7">
-        <v>3.753473752827915</v>
+        <v>34.63963891141599</v>
       </c>
       <c r="S7">
-        <v>0.04147331207057969</v>
+        <v>0.03705200270424613</v>
       </c>
       <c r="T7">
-        <v>0.04147331207057969</v>
+        <v>0.03705200270424613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H8">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I8">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J8">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.99204278133065</v>
+        <v>6.408252</v>
       </c>
       <c r="N8">
-        <v>5.99204278133065</v>
+        <v>19.224756</v>
       </c>
       <c r="O8">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="P8">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="Q8">
-        <v>2.144247578799848</v>
+        <v>2.4599677365</v>
       </c>
       <c r="R8">
-        <v>2.144247578799848</v>
+        <v>22.1397096285</v>
       </c>
       <c r="S8">
-        <v>0.02369246592577096</v>
+        <v>0.0236815569332063</v>
       </c>
       <c r="T8">
-        <v>0.02369246592577096</v>
+        <v>0.0236815569332063</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H9">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I9">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J9">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.593847247754663</v>
+        <v>0.6824433333333334</v>
       </c>
       <c r="N9">
-        <v>0.593847247754663</v>
+        <v>2.04733</v>
       </c>
       <c r="O9">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="P9">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="Q9">
-        <v>0.2125077489670587</v>
+        <v>0.2619729345833334</v>
       </c>
       <c r="R9">
-        <v>0.2125077489670587</v>
+        <v>2.35775641125</v>
       </c>
       <c r="S9">
-        <v>0.002348064958143668</v>
+        <v>0.002521954606657232</v>
       </c>
       <c r="T9">
-        <v>0.002348064958143668</v>
+        <v>0.002521954606657232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H10">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.371040701877471</v>
+        <v>0.3751373333333333</v>
       </c>
       <c r="N10">
-        <v>0.371040701877471</v>
+        <v>1.125412</v>
       </c>
       <c r="O10">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782962</v>
       </c>
       <c r="P10">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782963</v>
       </c>
       <c r="Q10">
-        <v>0.1327766098592982</v>
+        <v>0.1440058438333333</v>
       </c>
       <c r="R10">
-        <v>0.1327766098592982</v>
+        <v>1.2960525945</v>
       </c>
       <c r="S10">
-        <v>0.001467090524402755</v>
+        <v>0.001386311917369123</v>
       </c>
       <c r="T10">
-        <v>0.001467090524402755</v>
+        <v>0.001386311917369124</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H11">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I11">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J11">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.99204278133065</v>
+        <v>6.408252</v>
       </c>
       <c r="N11">
-        <v>5.99204278133065</v>
+        <v>19.224756</v>
       </c>
       <c r="O11">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="P11">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="Q11">
-        <v>10.16883600145796</v>
+        <v>14.512684997124</v>
       </c>
       <c r="R11">
-        <v>10.16883600145796</v>
+        <v>130.614164974116</v>
       </c>
       <c r="S11">
-        <v>0.1123586673718635</v>
+        <v>0.1397103591700219</v>
       </c>
       <c r="T11">
-        <v>0.1123586673718635</v>
+        <v>0.1397103591700219</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H12">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I12">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J12">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.593847247754663</v>
+        <v>0.6824433333333334</v>
       </c>
       <c r="N12">
-        <v>0.593847247754663</v>
+        <v>2.04733</v>
       </c>
       <c r="O12">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="P12">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="Q12">
-        <v>1.007792416160507</v>
+        <v>1.545520545236667</v>
       </c>
       <c r="R12">
-        <v>1.007792416160507</v>
+        <v>13.90968490713</v>
       </c>
       <c r="S12">
-        <v>0.01113541538589373</v>
+        <v>0.01487837919188993</v>
       </c>
       <c r="T12">
-        <v>0.01113541538589373</v>
+        <v>0.01487837919188993</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H13">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I13">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J13">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.371040701877471</v>
+        <v>0.3751373333333333</v>
       </c>
       <c r="N13">
-        <v>0.371040701877471</v>
+        <v>1.125412</v>
       </c>
       <c r="O13">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782962</v>
       </c>
       <c r="P13">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782963</v>
       </c>
       <c r="Q13">
-        <v>0.6296770875891471</v>
+        <v>0.8495686420146665</v>
       </c>
       <c r="R13">
-        <v>0.6296770875891471</v>
+        <v>7.646117778131999</v>
       </c>
       <c r="S13">
-        <v>0.006957500192349348</v>
+        <v>0.008178606518296133</v>
       </c>
       <c r="T13">
-        <v>0.006957500192349348</v>
+        <v>0.008178606518296135</v>
       </c>
     </row>
   </sheetData>
